--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlaforme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/849507f40a0f895e/Documents/ProPASS/Studies/LOFUS/Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A121717-BC86-4864-88DB-906A08158845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A34DBC-44A3-4C3F-BF40-01148F54F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="458">
   <si>
     <t>index</t>
   </si>
@@ -1340,13 +1340,6 @@
     <t>V_15r Insulin; V_15s Other diabetes medication</t>
   </si>
   <si>
-    <t>case_when(
-V_15r == 1 ~ 1L; 
-V_15s == 1 ~ 1L;
-(V_15r == 0) &amp; (V_15s == 0) ~ 0L;
-ELSE ~ NA_integer)</t>
-  </si>
-  <si>
     <t>0 = Has been diagnosed with Alzheimers or other dementia ; 
 1 = Has not been diagnosed with Alzheimers or other dementia</t>
   </si>
@@ -1422,6 +1415,237 @@
     <t>other</t>
   </si>
   <si>
+    <t>Total sitting time</t>
+  </si>
+  <si>
+    <t>V_24a; 
+V_24b; 
+V_24c; 
+V_24e; 
+V_24f; 
+V_24g; 
+V_24h; 
+V_24i; 
+V_24j; 
+V_24k; 
+V_24l; 
+V_24m</t>
+  </si>
+  <si>
+    <t>Physical activity - Other domain</t>
+  </si>
+  <si>
+    <t>V_24 Within the last four weeks, how many hours a week have you, on average, spent on the following activities in your spare time? 
+V_24a Jogging or moderate running; 
+V_24b Combined weight- and cardio-exercise (like Crossfit or Pump); 
+V_24c Strenght training; 
+V_24e Dance, aerobics, step or Zumba; 
+V_24f Martial arts; 
+V_24g Soccer, handball or basketball; 
+V_24h Badminton, tennis, squash, table tennis or volleybal; 
+V_24i Gymnastics; 
+V_24j Kayak or rowing; 
+V_24k Swimming; 
+V_24l Spinning, exercise cycling, road cycling, MTB; 
+V_24m Other light sports exercise like e.g. bowling, billiard or the like</t>
+  </si>
+  <si>
+    <t>1:None;2:Less than 1/2 hour;3:1/2 - 1 hour;4:1-2 hours;5:3-5 hours;6:6-10 hours;7:11 hours or more</t>
+  </si>
+  <si>
+    <t>V_24o; V_24q</t>
+  </si>
+  <si>
+    <t>V_24 Within the last four weeks, how many hours a week have you, on average, spent on the following activities in your spare time? 
+V_24o Cycling as transportation to/from work/education; 
+V_24q Walking as transportation to/from work/education</t>
+  </si>
+  <si>
+    <t>V_24a; 
+V_24b; 
+V_24c; 
+V_24d; 
+V_24e; 
+V_24f; 
+V_24g; 
+V_24h; 
+V_24i; 
+V_24j; 
+V_24k; 
+V_24l; 
+V_24n; 
+V_24r; 
+V_24t</t>
+  </si>
+  <si>
+    <t>How would you characterize 
+your physical activity during 
+leisure time?
+1. leading, TV, cinema and other other sedebtary behaviours
+2. walking, cycling or other movement for at least 4 hours per week.
+3. active sports at least 3 times per week or heavy gardening or similar.
+4. Competitive sports or longdistance running several times per week. 
+Self-report</t>
+  </si>
+  <si>
+    <t>Total score of the physical function subscale of SF36</t>
+  </si>
+  <si>
+    <t>case_when(
+V_75 %in% c(1:3, 10) ~ 1L;
+V_75 %in% c(5, 12) ~ 0L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>Registered partnership is the Danish legal term for the equivalent to same-sex marriage and should be recoded to Married.</t>
+  </si>
+  <si>
+    <t>recode(1=1; 2=1; 3=NA; 4=2; 5=2; 6=0; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>round(rowMeans(select(., ArmBT1s, ArmBT2s, ArmBT3s), na.rm = TRUE), 2)</t>
+  </si>
+  <si>
+    <t>round(rowMeans(select(., ArmBT1d, ArmBT2d, ArmBT3d), na.rm = TRUE), 2)</t>
+  </si>
+  <si>
+    <t>round(BP_06 - BP_04 - (BP_05 / 2.2), 2)</t>
+  </si>
+  <si>
+    <t>comment_question_for_cohort2</t>
+  </si>
+  <si>
+    <t>response_from_cohort2</t>
+  </si>
+  <si>
+    <t>high school is equivalent to upper secondary.
+Education is based on the higher education achieved.</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Please provide the average daily number of cigarettes variable name</t>
+  </si>
+  <si>
+    <t>Please provide the variable names for all those variables and the coding (ex: 1=yes 0=no)</t>
+  </si>
+  <si>
+    <t>Please provide the variable names for the Arthrosis Rheumatoid arthritis variables and the coding (ex: 1=yes 0=no)</t>
+  </si>
+  <si>
+    <t>Please provide the variable name of diabetes with the coding (ex: 1=yes 0=no)</t>
+  </si>
+  <si>
+    <t>Please provide the variable name of cancer with the coding (ex: 1=yes 0=no)</t>
+  </si>
+  <si>
+    <t>Please provide this vriable name with the coding (ex: 1=yes 0=no)</t>
+  </si>
+  <si>
+    <t>case_when(
+V_74 %in% 3:4 ~ 2L;
+V_74 %in% 5:6 ~ 3L;
+V_73 == 5 ~ 1L;
+V_73 %in% 1:4 ~ 0L;
+V_73 %in% c(1, 6) | V_74 %in% c(1, 7) ~ NA_integer_;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>The category "No" was not produced. Collected information included Heart thrombisis, Leg Thrombosis, Angina pectoris and Hypertension.</t>
+  </si>
+  <si>
+    <t>case_when(
+V_10n == 1 | V_10a == 1 | V_10c == 1 | V_10d == 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>The category "No" was not produced. Collected information included Osteoarthritis, Rheumatoid arthritis and Spinal hernia or other spinal diseases.</t>
+  </si>
+  <si>
+    <t>case_when(
+V_10l == 1 | V_10m == 1 | V_10q == 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>recode(0=0; 1=1; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>weight_bio;
+weight</t>
+  </si>
+  <si>
+    <t>V_40a</t>
+  </si>
+  <si>
+    <t>V_10n;
+V_10a;
+V_10c;
+V_10d</t>
+  </si>
+  <si>
+    <t>Hypertension;
+Heart thrombisis;
+Angina pectoris;
+Leg Thrombosis</t>
+  </si>
+  <si>
+    <t>V10l;
+V10m;
+V10q</t>
+  </si>
+  <si>
+    <t>Osteoarthritis;
+Rheumatoid arthritis;
+Spinal hernia or other spinal diseases</t>
+  </si>
+  <si>
+    <t>V_10e</t>
+  </si>
+  <si>
+    <t>V_10i</t>
+  </si>
+  <si>
+    <t>V_15j</t>
+  </si>
+  <si>
+    <t>Cholesterol-lowering medication</t>
+  </si>
+  <si>
+    <t>RandomParticipantNumber</t>
+  </si>
+  <si>
+    <t>floor(AgeVisit)</t>
+  </si>
+  <si>
+    <t>case_when(
+V_15r == 1 ~ 1L; 
+V_15s == 1 ~ 1L;
+(V_15r == 0) &amp; (V_15s == 0) ~ 0L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>as.Date(VisitDate)</t>
+  </si>
+  <si>
+    <t>case_when(
+if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 3:7)) ~ 1L;
+if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 1:2)) ~ 0L;
+ELSE ~ NA_integer)</t>
+  </si>
+  <si>
+    <t>case_when(
+if_any(.cols = any_of(c(V_24o, V_24q), .fns = ~ . %in% 2:7)) ~ 1L;
+if_all(.cols = any_of(c(V_24o, V_24q), .fns = ~ . == 1)) ~ 0L;
+ELSE ~ NA_integer)</t>
+  </si>
+  <si>
+    <t>case_when(
+if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 3:7)) ~ 1L;
+if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 1:2)) ~ 0L;
+ELSE ~ NA_integer)</t>
+  </si>
+  <si>
     <t xml:space="preserve">case_when(
 (rowSums(mutate(.,
 temp_V_19bh = case_when(V_19bh == 1 ~ 0*5;
@@ -1429,7 +1653,7 @@
 V_19bh == 3 ~ 0.75*5;
 V_19bh == 4 ~ 1.5*5;
 V_19bh == 5 ~ 3.5*5;
-V_19bh == 6 ~ 5*5
+V_19bh == 6 ~ 5*5;
 ELSE ~ NA_real_),
 temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
 V_19bw == 2 ~ 0.25*2;
@@ -1445,7 +1669,7 @@
 V_19bh == 3 ~ 0.75*5;
 V_19bh == 4 ~ 1.5*5;
 V_19bh == 5 ~ 3.5*5;
-V_19bh == 6 ~ 5*5
+V_19bh == 6 ~ 5*5;
 ELSE ~ NA_real_),
 temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
 V_19bw == 2 ~ 0.25*2;
@@ -1477,7 +1701,7 @@
 V_19bh == 3 ~ 0.75*5;
 V_19bh == 4 ~ 1.5*5;
 V_19bh == 5 ~ 3.5*5;
-V_19bh == 6 ~ 5*5
+V_19bh == 6 ~ 5*5;
 ELSE ~ NA_real_),
 temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
 V_19bw == 2 ~ 0.25*2;
@@ -1489,224 +1713,6 @@
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &gt; 3 ~ 3L; 
 ELSE ~ NA_integer_)
 </t>
-  </si>
-  <si>
-    <t>Total sitting time</t>
-  </si>
-  <si>
-    <t>V_24a; 
-V_24b; 
-V_24c; 
-V_24e; 
-V_24f; 
-V_24g; 
-V_24h; 
-V_24i; 
-V_24j; 
-V_24k; 
-V_24l; 
-V_24m</t>
-  </si>
-  <si>
-    <t>Physical activity - Other domain</t>
-  </si>
-  <si>
-    <t>V_24 Within the last four weeks, how many hours a week have you, on average, spent on the following activities in your spare time? 
-V_24a Jogging or moderate running; 
-V_24b Combined weight- and cardio-exercise (like Crossfit or Pump); 
-V_24c Strenght training; 
-V_24e Dance, aerobics, step or Zumba; 
-V_24f Martial arts; 
-V_24g Soccer, handball or basketball; 
-V_24h Badminton, tennis, squash, table tennis or volleybal; 
-V_24i Gymnastics; 
-V_24j Kayak or rowing; 
-V_24k Swimming; 
-V_24l Spinning, exercise cycling, road cycling, MTB; 
-V_24m Other light sports exercise like e.g. bowling, billiard or the like</t>
-  </si>
-  <si>
-    <t>1:None;2:Less than 1/2 hour;3:1/2 - 1 hour;4:1-2 hours;5:3-5 hours;6:6-10 hours;7:11 hours or more</t>
-  </si>
-  <si>
-    <t>case_when(
-if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 3:7) ~ 1L;
-if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 1:2) ~ 0L;
-ELSE ~ NA_integer)</t>
-  </si>
-  <si>
-    <t>V_24o; V_24q</t>
-  </si>
-  <si>
-    <t>V_24 Within the last four weeks, how many hours a week have you, on average, spent on the following activities in your spare time? 
-V_24o Cycling as transportation to/from work/education; 
-V_24q Walking as transportation to/from work/education</t>
-  </si>
-  <si>
-    <t>case_when(
-if_any(.cols = any_of(c(V_24o, V_24q), .fns = ~ . %in% 2:7) ~ 1L;
-if_all(.cols = any_of(c(V_24o, V_24q), .fns = ~ . == 1) ~ 0L;
-ELSE ~ NA_integer)</t>
-  </si>
-  <si>
-    <t>V_24a; 
-V_24b; 
-V_24c; 
-V_24d; 
-V_24e; 
-V_24f; 
-V_24g; 
-V_24h; 
-V_24i; 
-V_24j; 
-V_24k; 
-V_24l; 
-V_24n; 
-V_24r; 
-V_24t</t>
-  </si>
-  <si>
-    <t>How would you characterize 
-your physical activity during 
-leisure time?
-1. leading, TV, cinema and other other sedebtary behaviours
-2. walking, cycling or other movement for at least 4 hours per week.
-3. active sports at least 3 times per week or heavy gardening or similar.
-4. Competitive sports or longdistance running several times per week. 
-Self-report</t>
-  </si>
-  <si>
-    <t>case_when(
-if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 3:7) ~ 1L;
-if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 1:2) ~ 0L;
-ELSE ~ NA_integer)</t>
-  </si>
-  <si>
-    <t>Total score of the physical function subscale of SF36</t>
-  </si>
-  <si>
-    <t>case_when(
-V_75 %in% c(1:3, 10) ~ 1L;
-V_75 %in% c(5, 12) ~ 0L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>Registered partnership is the Danish legal term for the equivalent to same-sex marriage and should be recoded to Married.</t>
-  </si>
-  <si>
-    <t>recode(1=1; 2=1; 3=NA; 4=2; 5=2; 6=0; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(select(., ArmBT1s, ArmBT2s, ArmBT3s), na.rm = TRUE), 2)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(select(., ArmBT1d, ArmBT2d, ArmBT3d), na.rm = TRUE), 2)</t>
-  </si>
-  <si>
-    <t>round(BP_06 - BP_04 - (BP_05 / 2.2), 2)</t>
-  </si>
-  <si>
-    <t>comment_question_for_cohort2</t>
-  </si>
-  <si>
-    <t>response_from_cohort2</t>
-  </si>
-  <si>
-    <t>high school is equivalent to upper secondary.
-Education is based on the higher education achieved.</t>
-  </si>
-  <si>
-    <t>Thank you</t>
-  </si>
-  <si>
-    <t>Please provide the average daily number of cigarettes variable name</t>
-  </si>
-  <si>
-    <t>Please provide the variable names for all those variables and the coding (ex: 1=yes 0=no)</t>
-  </si>
-  <si>
-    <t>Please provide the variable names for the Arthrosis Rheumatoid arthritis variables and the coding (ex: 1=yes 0=no)</t>
-  </si>
-  <si>
-    <t>Please provide the variable name of diabetes with the coding (ex: 1=yes 0=no)</t>
-  </si>
-  <si>
-    <t>Please provide the variable name of cancer with the coding (ex: 1=yes 0=no)</t>
-  </si>
-  <si>
-    <t>Please provide this vriable name with the coding (ex: 1=yes 0=no)</t>
-  </si>
-  <si>
-    <t>case_when(
-V_74 %in% 3:4 ~ 2L;
-V_74 %in% 5:6 ~ 3L;
-V_73 == 5 ~ 1L;
-V_73 %in% 1:4 ~ 0L;
-V_73 %in% c(1, 6) | V_74 %in% c(1, 7) ~ NA_integer_;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>The category "No" was not produced. Collected information included Heart thrombisis, Leg Thrombosis, Angina pectoris and Hypertension.</t>
-  </si>
-  <si>
-    <t>case_when(
-V_10n == 1 | V_10a == 1 | V_10c == 1 | V_10d == 1 ~ 1L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>The category "No" was not produced. Collected information included Osteoarthritis, Rheumatoid arthritis and Spinal hernia or other spinal diseases.</t>
-  </si>
-  <si>
-    <t>case_when(
-V_10l == 1 | V_10m == 1 | V_10q == 1 ~ 1L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>recode(0=0; 1=1; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>weight_bio;
-weight</t>
-  </si>
-  <si>
-    <t>V_40a</t>
-  </si>
-  <si>
-    <t>V_10n;
-V_10a;
-V_10c;
-V_10d</t>
-  </si>
-  <si>
-    <t>Hypertension;
-Heart thrombisis;
-Angina pectoris;
-Leg Thrombosis</t>
-  </si>
-  <si>
-    <t>V10l;
-V10m;
-V10q</t>
-  </si>
-  <si>
-    <t>Osteoarthritis;
-Rheumatoid arthritis;
-Spinal hernia or other spinal diseases</t>
-  </si>
-  <si>
-    <t>V_10e</t>
-  </si>
-  <si>
-    <t>V_10i</t>
-  </si>
-  <si>
-    <t>V_15j</t>
-  </si>
-  <si>
-    <t>Cholesterol-lowering medication</t>
-  </si>
-  <si>
-    <t>RandomParticipantNumber</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1769,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1794,6 +1800,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1808,7 +1820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1844,6 +1856,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2190,7 +2209,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2232,7 @@
     <col min="16" max="16" width="12.7109375" style="12" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="12" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="12" customWidth="1"/>
+    <col min="19" max="19" width="58.85546875" style="12" customWidth="1"/>
     <col min="20" max="21" width="9.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2282,10 +2301,10 @@
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -2308,7 +2327,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>284</v>
@@ -2326,7 +2345,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2365,17 +2384,17 @@
       <c r="N3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>45</v>
+      <c r="R3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>453</v>
       </c>
       <c r="U3" s="1"/>
     </row>
@@ -2461,17 +2480,17 @@
       <c r="N5" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>45</v>
+      <c r="Q5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>451</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -2519,14 +2538,14 @@
         <v>200</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="T6" s="14" t="s">
         <v>278</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -2615,14 +2634,14 @@
         <v>200</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>303</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2826,7 +2845,7 @@
         <v>311</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>25</v>
@@ -2838,14 +2857,14 @@
         <v>39</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>312</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -2899,7 +2918,7 @@
       </c>
       <c r="U14" s="1"/>
       <c r="V14" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2947,7 +2966,7 @@
       </c>
       <c r="U15" s="1"/>
       <c r="V15" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3060,7 +3079,7 @@
         <v>94</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>323</v>
@@ -3082,7 +3101,7 @@
       </c>
       <c r="U18" s="1"/>
       <c r="V18" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -3108,7 +3127,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>25</v>
@@ -3262,7 +3281,7 @@
       </c>
       <c r="U22" s="1"/>
       <c r="V22" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -3405,7 +3424,7 @@
         <v>33</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="U25" s="1"/>
     </row>
@@ -3456,7 +3475,7 @@
         <v>33</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="U26" s="1"/>
     </row>
@@ -3815,16 +3834,16 @@
       <c r="N34" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="P34" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="12" t="s">
+      <c r="Q34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R34" s="12" t="s">
+      <c r="R34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="S34" s="12" t="s">
+      <c r="S34" s="15" t="s">
         <v>45</v>
       </c>
       <c r="U34" s="1"/>
@@ -3867,7 +3886,7 @@
         <v>33</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="U35" s="1"/>
     </row>
@@ -3953,16 +3972,16 @@
       <c r="N37" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="P37" s="12" t="s">
+      <c r="P37" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="12" t="s">
+      <c r="Q37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="12" t="s">
+      <c r="R37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="S37" s="12" t="s">
+      <c r="S37" s="15" t="s">
         <v>45</v>
       </c>
       <c r="U37" s="1"/>
@@ -4373,7 +4392,7 @@
         <v>178</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P47" s="12" t="s">
         <v>25</v>
@@ -4392,7 +4411,7 @@
       </c>
       <c r="U47" s="1"/>
       <c r="V47" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -4466,13 +4485,13 @@
         <v>185</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P49" s="12" t="s">
         <v>25</v>
@@ -4484,14 +4503,14 @@
         <v>200</v>
       </c>
       <c r="S49" s="12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="T49" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -4517,13 +4536,13 @@
         <v>185</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P50" s="12" t="s">
         <v>25</v>
@@ -4535,14 +4554,14 @@
         <v>200</v>
       </c>
       <c r="S50" s="12" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="T50" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -4568,7 +4587,7 @@
         <v>185</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P51" s="12" t="s">
         <v>25</v>
@@ -4580,14 +4599,14 @@
         <v>39</v>
       </c>
       <c r="S51" s="12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="T51" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -4652,7 +4671,7 @@
         <v>185</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="P53" s="12" t="s">
         <v>25</v>
@@ -4664,14 +4683,14 @@
         <v>39</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="T53" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U53" s="1"/>
       <c r="V53" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -4736,10 +4755,10 @@
         <v>185</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P55" s="12" t="s">
         <v>25</v>
@@ -4751,14 +4770,14 @@
         <v>39</v>
       </c>
       <c r="S55" s="12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="T55" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U55" s="1"/>
       <c r="V55" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -4805,17 +4824,17 @@
         <v>39</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="T56" s="6" t="s">
         <v>388</v>
       </c>
       <c r="U56" s="1"/>
       <c r="V56" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -4849,17 +4868,17 @@
       <c r="M57" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="P57" s="12" t="s">
+      <c r="P57" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q57" s="12" t="s">
+      <c r="Q57" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R57" s="12" t="s">
+      <c r="R57" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="S57" s="12" t="s">
-        <v>392</v>
+      <c r="S57" s="16" t="s">
+        <v>452</v>
       </c>
       <c r="U57" s="1"/>
     </row>
@@ -5174,7 +5193,7 @@
         <v>37</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J66" s="12" t="s">
         <v>55</v>
@@ -5216,19 +5235,19 @@
         <v>226</v>
       </c>
       <c r="J67" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="K67" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="L67" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="L67" s="12" t="s">
+      <c r="M67" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="M67" s="10" t="s">
+      <c r="O67" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="O67" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="P67" s="12" t="s">
         <v>60</v>
@@ -5264,22 +5283,22 @@
         <v>37</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J68" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="L68" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="L68" s="12" t="s">
+      <c r="M68" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="O68" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="O68" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="P68" s="12" t="s">
         <v>60</v>
@@ -5396,13 +5415,13 @@
         <v>234</v>
       </c>
       <c r="J71" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="L71" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="L71" s="12" t="s">
+      <c r="M71" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="P71" s="12" t="s">
         <v>25</v>
@@ -5414,7 +5433,7 @@
         <v>39</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U71" s="1"/>
     </row>
@@ -5441,13 +5460,13 @@
         <v>234</v>
       </c>
       <c r="J72" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="L72" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="L72" s="12" t="s">
-        <v>405</v>
-      </c>
       <c r="M72" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P72" s="12" t="s">
         <v>25</v>
@@ -5459,7 +5478,7 @@
         <v>39</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U72" s="1"/>
     </row>
@@ -5502,7 +5521,7 @@
       </c>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -5525,25 +5544,25 @@
         <v>246</v>
       </c>
       <c r="J74" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R74" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="M74" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="P74" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q74" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R74" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="S74" s="12" t="s">
-        <v>409</v>
+      <c r="S74" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="U74" s="1"/>
     </row>
@@ -5597,7 +5616,7 @@
         <v>251</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>252</v>
@@ -5739,7 +5758,7 @@
       </c>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -5762,32 +5781,32 @@
         <v>185</v>
       </c>
       <c r="J80" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="L80" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="K80" s="12" t="s">
+      <c r="M80" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="L80" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="P80" s="12" t="s">
+      <c r="P80" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q80" s="12" t="s">
+      <c r="Q80" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R80" s="12" t="s">
+      <c r="R80" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="S80" s="1" t="s">
-        <v>415</v>
+      <c r="S80" s="17" t="s">
+        <v>454</v>
       </c>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -5810,32 +5829,32 @@
         <v>185</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K81" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="M81" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="L81" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="P81" s="12" t="s">
+      <c r="P81" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q81" s="12" t="s">
+      <c r="Q81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R81" s="12" t="s">
+      <c r="R81" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="S81" s="1" t="s">
-        <v>418</v>
+      <c r="S81" s="17" t="s">
+        <v>455</v>
       </c>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -5858,28 +5877,28 @@
         <v>185</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K82" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M82" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="P82" s="12" t="s">
+      <c r="P82" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q82" s="12" t="s">
+      <c r="Q82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R82" s="12" t="s">
+      <c r="R82" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="S82" s="1" t="s">
-        <v>421</v>
+      <c r="S82" s="17" t="s">
+        <v>456</v>
       </c>
       <c r="U82" s="1"/>
     </row>
@@ -5897,7 +5916,7 @@
         <v>273</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>37</v>

--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/849507f40a0f895e/Documents/ProPASS/Studies/LOFUS/Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A34DBC-44A3-4C3F-BF40-01148F54F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56513902-03DB-4763-B0E1-EBC23A82AD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="460">
   <si>
     <t>index</t>
   </si>
@@ -1713,6 +1713,14 @@
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &gt; 3 ~ 3L; 
 ELSE ~ NA_integer_)
 </t>
+  </si>
+  <si>
+    <t>case_when(BP_03 == "&lt;0.1" ~ 0.05;
+ELSE ~ BP_03)</t>
+  </si>
+  <si>
+    <t>case_when(BP_06 == "&lt;0.16" ~ 0.08;
+ELSE ~ BP_06)</t>
   </si>
 </sst>
 </file>
@@ -2206,10 +2214,10 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,7 +3808,7 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -3838,13 +3846,13 @@
         <v>25</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S34" s="15" t="s">
-        <v>45</v>
+        <v>200</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>458</v>
       </c>
       <c r="U34" s="1"/>
     </row>
@@ -3938,7 +3946,7 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -3976,13 +3984,13 @@
         <v>25</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R37" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>45</v>
+        <v>200</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="U37" s="1"/>
     </row>

--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56513902-03DB-4763-B0E1-EBC23A82AD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958E2F5A-7C0F-4B91-B83D-7B41A6955ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1719,8 +1719,8 @@
 ELSE ~ BP_03)</t>
   </si>
   <si>
-    <t>case_when(BP_06 == "&lt;0.16" ~ 0.08;
-ELSE ~ BP_06)</t>
+    <t>case_when(BP_07 == "&lt;0.16" ~ 0.08;
+ELSE ~ BP_07)</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2217,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q40" sqref="Q40"/>
+      <selection pane="bottomRight" activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA787C9-E600-4F06-8065-289ACA65BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC0455A-0E6A-4766-A41D-BBEBABC53B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="460">
   <si>
     <t>index</t>
   </si>
@@ -1412,6 +1412,9 @@
 Playing computer games (on smartphone, tablet, game console, PC or the like) - weekend</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>Total sitting time</t>
   </si>
   <si>
@@ -1540,170 +1543,184 @@
     <t>Please provide this vriable name with the coding (ex: 1=yes 0=no)</t>
   </si>
   <si>
-    <t>The category "No" was not produced. Collected information included Heart thrombisis, Leg Thrombosis, Angina pectoris and Hypertension.</t>
-  </si>
-  <si>
-    <t>case_when(
-V_10n == 1 | V_10a == 1 | V_10c == 1 | V_10d == 1 ~ 1L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>The category "No" was not produced. Collected information included Osteoarthritis, Rheumatoid arthritis and Spinal hernia or other spinal diseases.</t>
-  </si>
-  <si>
-    <t>case_when(
-V_10l == 1 | V_10m == 1 | V_10q == 1 ~ 1L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>recode(0=0; 1=1; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>weight_bio;
-weight</t>
-  </si>
-  <si>
-    <t>V_40a</t>
-  </si>
-  <si>
-    <t>V_10n;
-V_10a;
-V_10c;
-V_10d</t>
-  </si>
-  <si>
-    <t>Hypertension;
-Heart thrombisis;
-Angina pectoris;
-Leg Thrombosis</t>
-  </si>
-  <si>
-    <t>V10l;
-V10m;
-V10q</t>
-  </si>
-  <si>
-    <t>Osteoarthritis;
-Rheumatoid arthritis;
-Spinal hernia or other spinal diseases</t>
-  </si>
-  <si>
-    <t>V_10e</t>
-  </si>
-  <si>
-    <t>V_10i</t>
-  </si>
-  <si>
-    <t>V_15j</t>
-  </si>
-  <si>
-    <t>Cholesterol-lowering medication</t>
-  </si>
-  <si>
-    <t>RandomParticipantNumber</t>
-  </si>
-  <si>
     <t>case_when(
 V_74 %in% 3:4 ~ 2L;
 V_74 %in% 5:6 ~ 3L;
 V_73 == 5 ~ 1L;
 V_73 %in% 1:4 ~ 0L;
-V_73 %in% c(1, 6) | V_74 %in% c(1, 7) ~ NA_integer_; 
+V_73 %in% c(1, 6) | V_74 %in% c(1, 7) ~ NA_integer_;
 ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>The category "No" was not produced. Collected information included Heart thrombisis, Leg Thrombosis, Angina pectoris and Hypertension.</t>
+  </si>
+  <si>
+    <t>case_when(
+V_10n == 1 | V_10a == 1 | V_10c == 1 | V_10d == 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>The category "No" was not produced. Collected information included Osteoarthritis, Rheumatoid arthritis and Spinal hernia or other spinal diseases.</t>
+  </si>
+  <si>
+    <t>case_when(
+V_10l == 1 | V_10m == 1 | V_10q == 1 ~ 1L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>recode(0=0; 1=1; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>weight_bio;
+weight</t>
+  </si>
+  <si>
+    <t>V_40a</t>
+  </si>
+  <si>
+    <t>V_10n;
+V_10a;
+V_10c;
+V_10d</t>
+  </si>
+  <si>
+    <t>Hypertension;
+Heart thrombisis;
+Angina pectoris;
+Leg Thrombosis</t>
+  </si>
+  <si>
+    <t>Osteoarthritis;
+Rheumatoid arthritis;
+Spinal hernia or other spinal diseases</t>
+  </si>
+  <si>
+    <t>V_10e</t>
+  </si>
+  <si>
+    <t>V_10i</t>
+  </si>
+  <si>
+    <t>V_15j</t>
+  </si>
+  <si>
+    <t>Cholesterol-lowering medication</t>
+  </si>
+  <si>
+    <t>RandomParticipantNumber</t>
+  </si>
+  <si>
+    <t>floor(AgeVisit)</t>
   </si>
   <si>
     <t>case_when(
 V_15r == 1 ~ 1L; 
 V_15s == 1 ~ 1L;
 (V_15r == 0) &amp; (V_15s == 0) ~ 0L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>as.Date(VisitDate)</t>
+  </si>
+  <si>
+    <t>case_when(
+if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 3:7)) ~ 1L;
+if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 1:2)) ~ 0L;
+ELSE ~ NA_integer)</t>
+  </si>
+  <si>
+    <t>case_when(
+if_any(.cols = any_of(c(V_24o, V_24q), .fns = ~ . %in% 2:7)) ~ 1L;
+if_all(.cols = any_of(c(V_24o, V_24q), .fns = ~ . == 1)) ~ 0L;
+ELSE ~ NA_integer)</t>
+  </si>
+  <si>
+    <t>case_when(
+if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 3:7)) ~ 1L;
+if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 1:2)) ~ 0L;
 ELSE ~ NA_integer)</t>
   </si>
   <si>
     <t xml:space="preserve">case_when(
 (rowSums(mutate(.,
-temp_V_19bh = case_when(V_19bh == 1 ~ 0*5,
-V_19bh == 2 ~ 0.25*5,
-V_19bh == 3 ~ 0.75*5,
-V_19bh == 4 ~ 1.5*5,
-V_19bh == 5 ~ 3.5*5,
-V_19bh == 6 ~ 5*5,
+temp_V_19bh = case_when(V_19bh == 1 ~ 0*5;
+V_19bh == 2 ~ 0.25*5;
+V_19bh == 3 ~ 0.75*5;
+V_19bh == 4 ~ 1.5*5;
+V_19bh == 5 ~ 3.5*5;
+V_19bh == 6 ~ 5*5;
 ELSE ~ NA_real_),
-temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2,
-V_19bw == 2 ~ 0.25*2,
-V_19bw == 3 ~ 0.75*2,
-V_19bw == 4 ~ 1.5*2,
-V_19bw == 5 ~ 3.5*2,
-V_19bw == 6 ~ 5*2,
+temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
+V_19bw == 2 ~ 0.25*2;
+V_19bw == 3 ~ 0.75*2;
+V_19bw == 4 ~ 1.5*2;
+V_19bw == 5 ~ 3.5*2;
+V_19bw == 6 ~ 5*2;
 ELSE ~ NA_real_)) %&gt;%
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &lt; 1 ~ 1L;
 (rowSums(mutate(.,
-temp_V_19bh = case_when(V_19bh == 1 ~ 0*5,
-V_19bh == 2 ~ 0.25*5,
-V_19bh == 3 ~ 0.75*5,
-V_19bh == 4 ~ 1.5*5,
-V_19bh == 5 ~ 3.5*5,
-V_19bh == 6 ~ 5*5,
+temp_V_19bh = case_when(V_19bh == 1 ~ 0*5;
+V_19bh == 2 ~ 0.25*5;
+V_19bh == 3 ~ 0.75*5;
+V_19bh == 4 ~ 1.5*5;
+V_19bh == 5 ~ 3.5*5;
+V_19bh == 6 ~ 5*5;
 ELSE ~ NA_real_),
-temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2,
-V_19bw == 2 ~ 0.25*2,
-V_19bw == 3 ~ 0.75*2,
-V_19bw == 4 ~ 1.5*2,
-V_19bw == 5 ~ 3.5*2,
-V_19bw == 6 ~ 5*2,
+temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
+V_19bw == 2 ~ 0.25*2;
+V_19bw == 3 ~ 0.75*2;
+V_19bw == 4 ~ 1.5*2;
+V_19bw == 5 ~ 3.5*2;
+V_19bw == 6 ~ 5*2;
 ELSE ~ NA_real_)) %&gt;%
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &gt;= 1 &amp;
 (rowSums(mutate(.,
-temp_V_19bh = case_when(V_19bh == 1 ~ 0*5,
-V_19bh == 2 ~ 0.25*5,
-V_19bh == 3 ~ 0.75*5,
-V_19bh == 4 ~ 1.5*5,
-V_19bh == 5 ~ 3.5*5,
-V_19bh == 6 ~ 5*5,
+temp_V_19bh = case_when(V_19bh == 1 ~ 0*5;
+V_19bh == 2 ~ 0.25*5;
+V_19bh == 3 ~ 0.75*5;
+V_19bh == 4 ~ 1.5*5;
+V_19bh == 5 ~ 3.5*5;
+V_19bh == 6 ~ 5*5
 ELSE ~ NA_real_),
-temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2,
-V_19bw == 2 ~ 0.25*2,
-V_19bw == 3 ~ 0.75*2,
-V_19bw == 4 ~ 1.5*2,
-V_19bw == 5 ~ 3.5*2,
-V_19bw == 6 ~ 5*2,
+temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
+V_19bw == 2 ~ 0.25*2;
+V_19bw == 3 ~ 0.75*2;
+V_19bw == 4 ~ 1.5*2;
+V_19bw == 5 ~ 3.5*2;
+V_19bw == 6 ~ 5*2;
 ELSE ~ NA_real_)) %&gt;%
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &lt;= 3 ~ 2L;
 (rowSums(mutate(.,
-temp_V_19bh = case_when(V_19bh == 1 ~ 0*5,
-V_19bh == 2 ~ 0.25*5,
-V_19bh == 3 ~ 0.75*5,
-V_19bh == 4 ~ 1.5*5,
-V_19bh == 5 ~ 3.5*5,
-V_19bh == 6 ~ 5*5,
+temp_V_19bh = case_when(V_19bh == 1 ~ 0*5;
+V_19bh == 2 ~ 0.25*5;
+V_19bh == 3 ~ 0.75*5;
+V_19bh == 4 ~ 1.5*5;
+V_19bh == 5 ~ 3.5*5;
+V_19bh == 6 ~ 5*5;
 ELSE ~ NA_real_),
-temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2,
-V_19bw == 2 ~ 0.25*2,
-V_19bw == 3 ~ 0.75*2,
-V_19bw == 4 ~ 1.5*2,
-V_19bw == 5 ~ 3.5*2,
-V_19bw == 6 ~ 5*2,
+temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
+V_19bw == 2 ~ 0.25*2;
+V_19bw == 3 ~ 0.75*2;
+V_19bw == 4 ~ 1.5*2;
+V_19bw == 5 ~ 3.5*2;
+V_19bw == 6 ~ 5*2;
 ELSE ~ NA_real_)) %&gt;%
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &gt; 3 ~ 3L; 
 ELSE ~ NA_integer_)
 </t>
   </si>
   <si>
-    <t>case_when(
-if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 3:7) ~ 1L;
-if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 1:2) ~ 0L;
-ELSE ~ NA_integer)</t>
-  </si>
-  <si>
-    <t>case_when(
-if_any(.cols = any_of(c(V_24o, V_24q), .fns = ~ . %in% 2:7) ~ 1L;
-if_all(.cols = any_of(c(V_24o, V_24q), .fns = ~ . == 1) ~ 0L;
-ELSE ~ NA_integer)</t>
-  </si>
-  <si>
-    <t>case_when(
-if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 3:7) ~ 1L;
-if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 1:2) ~ 0L;
-ELSE ~ NA_integer)</t>
+    <t>case_when(BP_03 == "&lt;0.1" ~ 0.05;
+ELSE ~ BP_03)</t>
+  </si>
+  <si>
+    <t>case_when(BP_07 == "&lt;0.16" ~ 0.08;
+ELSE ~ BP_07)</t>
+  </si>
+  <si>
+    <t>V_10l;
+V_10m;
+V_10q</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1852,9 +1869,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2203,37 +2217,37 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:S84"/>
+      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="12"/>
-    <col min="8" max="8" width="8.5546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="30.109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="31.88671875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" style="12" customWidth="1"/>
-    <col min="19" max="19" width="58.88671875" style="12" customWidth="1"/>
-    <col min="20" max="21" width="9.109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="12"/>
+    <col min="8" max="8" width="8.5703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="58.85546875" style="12" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2298,13 +2312,13 @@
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2324,7 +2338,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>284</v>
@@ -2342,12 +2356,12 @@
         <v>27</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2388,14 +2402,14 @@
         <v>26</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2443,7 +2457,7 @@
       </c>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2481,17 +2495,17 @@
         <v>25</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2534,18 +2548,18 @@
       <c r="R6" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="S6" s="18" t="s">
-        <v>449</v>
+      <c r="S6" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="T6" s="14" t="s">
         <v>278</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2587,7 +2601,7 @@
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2630,18 +2644,18 @@
       <c r="R8" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="S8" s="19" t="s">
-        <v>417</v>
+      <c r="S8" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>303</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2683,7 +2697,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2720,7 +2734,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2759,7 +2773,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -2802,12 +2816,12 @@
       <c r="R12" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="12" t="s">
         <v>308</v>
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2842,7 +2856,7 @@
         <v>311</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>25</v>
@@ -2854,17 +2868,17 @@
         <v>39</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>312</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -2915,10 +2929,10 @@
       </c>
       <c r="U14" s="1"/>
       <c r="V14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -2963,10 +2977,10 @@
       </c>
       <c r="U15" s="1"/>
       <c r="V15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3014,7 +3028,7 @@
       </c>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3053,7 +3067,7 @@
       </c>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3076,7 +3090,7 @@
         <v>94</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>323</v>
@@ -3090,7 +3104,7 @@
       <c r="R18" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="1" t="s">
         <v>324</v>
       </c>
       <c r="T18" s="6" t="s">
@@ -3098,10 +3112,10 @@
       </c>
       <c r="U18" s="1"/>
       <c r="V18" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="55.8" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -3124,7 +3138,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>25</v>
@@ -3135,12 +3149,12 @@
       <c r="R19" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="S19" s="19" t="s">
+      <c r="S19" s="12" t="s">
         <v>326</v>
       </c>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -3188,7 +3202,7 @@
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -3236,7 +3250,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -3278,10 +3292,10 @@
       </c>
       <c r="U22" s="1"/>
       <c r="V22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -3329,7 +3343,7 @@
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -3374,7 +3388,7 @@
       </c>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -3421,11 +3435,11 @@
         <v>33</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -3472,11 +3486,11 @@
         <v>33</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -3524,7 +3538,7 @@
       </c>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -3563,7 +3577,7 @@
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -3605,7 +3619,7 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -3653,7 +3667,7 @@
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -3701,7 +3715,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -3749,7 +3763,7 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -3797,7 +3811,7 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -3835,17 +3849,17 @@
         <v>25</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -3883,11 +3897,11 @@
         <v>33</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -3935,7 +3949,7 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -3973,17 +3987,17 @@
         <v>25</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R37" s="15" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -4022,7 +4036,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -4061,7 +4075,7 @@
       </c>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -4100,7 +4114,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -4139,7 +4153,7 @@
       </c>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -4178,7 +4192,7 @@
       </c>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -4217,7 +4231,7 @@
       </c>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -4265,7 +4279,7 @@
       </c>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -4313,7 +4327,7 @@
       </c>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -4366,7 +4380,7 @@
       </c>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -4389,7 +4403,7 @@
         <v>178</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P47" s="12" t="s">
         <v>25</v>
@@ -4408,10 +4422,10 @@
       </c>
       <c r="U47" s="1"/>
       <c r="V47" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -4459,7 +4473,7 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:22" ht="42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -4482,13 +4496,13 @@
         <v>185</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P49" s="12" t="s">
         <v>25</v>
@@ -4499,18 +4513,18 @@
       <c r="R49" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="S49" s="19" t="s">
-        <v>434</v>
+      <c r="S49" s="12" t="s">
+        <v>436</v>
       </c>
       <c r="T49" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="42" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -4532,14 +4546,14 @@
       <c r="I50" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>442</v>
+      <c r="J50" s="18" t="s">
+        <v>459</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P50" s="12" t="s">
         <v>25</v>
@@ -4550,18 +4564,18 @@
       <c r="R50" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="S50" s="19" t="s">
-        <v>436</v>
+      <c r="S50" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="T50" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -4584,7 +4598,7 @@
         <v>185</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P51" s="12" t="s">
         <v>25</v>
@@ -4596,17 +4610,17 @@
         <v>39</v>
       </c>
       <c r="S51" s="12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T51" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -4645,7 +4659,7 @@
       </c>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -4668,7 +4682,7 @@
         <v>185</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P53" s="12" t="s">
         <v>25</v>
@@ -4680,17 +4694,17 @@
         <v>39</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T53" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U53" s="1"/>
       <c r="V53" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -4729,7 +4743,7 @@
       </c>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -4752,10 +4766,10 @@
         <v>185</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P55" s="12" t="s">
         <v>25</v>
@@ -4767,17 +4781,17 @@
         <v>39</v>
       </c>
       <c r="S55" s="12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T55" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U55" s="1"/>
       <c r="V55" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -4821,17 +4835,17 @@
         <v>39</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T56" s="6" t="s">
         <v>388</v>
       </c>
       <c r="U56" s="1"/>
       <c r="V56" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="69.599999999999994" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -4875,11 +4889,11 @@
         <v>200</v>
       </c>
       <c r="S57" s="16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -4918,7 +4932,7 @@
       </c>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -4954,7 +4968,7 @@
       </c>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -4990,7 +5004,7 @@
       </c>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -5026,7 +5040,7 @@
       </c>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -5062,7 +5076,7 @@
       </c>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -5098,7 +5112,7 @@
       </c>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -5134,7 +5148,7 @@
       </c>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -5170,7 +5184,7 @@
       </c>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -5209,7 +5223,7 @@
       </c>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -5260,7 +5274,7 @@
       </c>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -5311,7 +5325,7 @@
       </c>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -5350,7 +5364,7 @@
       </c>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -5389,7 +5403,7 @@
       </c>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -5434,7 +5448,7 @@
       </c>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -5479,7 +5493,7 @@
       </c>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -5518,7 +5532,7 @@
       </c>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -5556,14 +5570,14 @@
         <v>50</v>
       </c>
       <c r="R74" s="15" t="s">
-        <v>200</v>
+        <v>407</v>
       </c>
       <c r="S74" s="16" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -5602,7 +5616,7 @@
       </c>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -5613,7 +5627,7 @@
         <v>251</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>252</v>
@@ -5641,7 +5655,7 @@
       </c>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -5677,7 +5691,7 @@
       </c>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -5716,7 +5730,7 @@
       </c>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -5755,7 +5769,7 @@
       </c>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -5778,16 +5792,16 @@
         <v>185</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P80" s="15" t="s">
         <v>25</v>
@@ -5799,11 +5813,11 @@
         <v>200</v>
       </c>
       <c r="S80" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -5826,16 +5840,16 @@
         <v>185</v>
       </c>
       <c r="J81" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="M81" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="P81" s="15" t="s">
         <v>25</v>
@@ -5847,11 +5861,11 @@
         <v>200</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -5874,16 +5888,16 @@
         <v>185</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P82" s="15" t="s">
         <v>25</v>
@@ -5895,11 +5909,11 @@
         <v>200</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -5913,7 +5927,7 @@
         <v>273</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>37</v>
@@ -5935,7 +5949,7 @@
       </c>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>83</v>
       </c>

--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/849507f40a0f895e/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC0455A-0E6A-4766-A41D-BBEBABC53B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8BC0455A-0E6A-4766-A41D-BBEBABC53B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8612F8C0-2341-4D1F-A49A-7079D525A542}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1710,17 +1710,17 @@
 </t>
   </si>
   <si>
-    <t>case_when(BP_03 == "&lt;0.1" ~ 0.05;
-ELSE ~ BP_03)</t>
-  </si>
-  <si>
-    <t>case_when(BP_07 == "&lt;0.16" ~ 0.08;
-ELSE ~ BP_07)</t>
-  </si>
-  <si>
     <t>V_10l;
 V_10m;
 V_10q</t>
+  </si>
+  <si>
+    <t>case_when(BP_03 == "&lt;0.1" ~ 0.05;
+ELSE ~ as.numeric(BP_03))</t>
+  </si>
+  <si>
+    <t>case_when(BP_07 == "&lt;0.16" ~ 0.08;
+ELSE ~  as.numeric(BP_07))</t>
   </si>
 </sst>
 </file>
@@ -2217,10 +2217,10 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomRight" activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,7 +3855,7 @@
         <v>200</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="U34" s="1"/>
     </row>
@@ -3993,7 +3993,7 @@
         <v>200</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U37" s="1"/>
     </row>
@@ -4547,7 +4547,7 @@
         <v>185</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>444</v>

--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/849507f40a0f895e/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8BC0455A-0E6A-4766-A41D-BBEBABC53B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8612F8C0-2341-4D1F-A49A-7079D525A542}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{8BC0455A-0E6A-4766-A41D-BBEBABC53B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C8A2DB6-CB66-416E-920D-71582DA777DF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="459">
   <si>
     <t>index</t>
   </si>
@@ -1412,9 +1412,6 @@
 Playing computer games (on smartphone, tablet, game console, PC or the like) - weekend</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>Total sitting time</t>
   </si>
   <si>
@@ -1623,104 +1620,101 @@
     <t>as.Date(VisitDate)</t>
   </si>
   <si>
-    <t>case_when(
-if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 3:7)) ~ 1L;
-if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24m), .fns = ~ . %in% 1:2)) ~ 0L;
-ELSE ~ NA_integer)</t>
-  </si>
-  <si>
-    <t>case_when(
-if_any(.cols = any_of(c(V_24o, V_24q), .fns = ~ . %in% 2:7)) ~ 1L;
-if_all(.cols = any_of(c(V_24o, V_24q), .fns = ~ . == 1)) ~ 0L;
-ELSE ~ NA_integer)</t>
-  </si>
-  <si>
-    <t>case_when(
-if_any(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 3:7)) ~ 1L;
-if_all(.cols = any_of(c(V_24a, V_24b, V_24c, V_24d, V_24e, V_24f, V_24g, V_24h, V_24i, V_24j, V_24k, V_24l, V_24n, V_24r, V_24t), .fns = ~ . %in% 1:2)) ~ 0L;
-ELSE ~ NA_integer)</t>
+    <t>V_10l;
+V_10m;
+V_10q</t>
+  </si>
+  <si>
+    <t>case_when(BP_03 == "&lt;0.1" ~ 0.05;
+ELSE ~ as.numeric(BP_03))</t>
+  </si>
+  <si>
+    <t>case_when(BP_07 == "&lt;0.16" ~ 0.08;
+ELSE ~  as.numeric(BP_07))</t>
   </si>
   <si>
     <t xml:space="preserve">case_when(
 (rowSums(mutate(.,
-temp_V_19bh = case_when(V_19bh == 1 ~ 0*5;
-V_19bh == 2 ~ 0.25*5;
-V_19bh == 3 ~ 0.75*5;
-V_19bh == 4 ~ 1.5*5;
-V_19bh == 5 ~ 3.5*5;
-V_19bh == 6 ~ 5*5;
+temp_V_19bh = case_when(V_19bh == 1 ~ 0*5,
+V_19bh == 2 ~ 0.25*5,
+V_19bh == 3 ~ 0.75*5,
+V_19bh == 4 ~ 1.5*5,
+V_19bh == 5 ~ 3.5*5,
+V_19bh == 6 ~ 5*5,
 ELSE ~ NA_real_),
-temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
-V_19bw == 2 ~ 0.25*2;
-V_19bw == 3 ~ 0.75*2;
-V_19bw == 4 ~ 1.5*2;
-V_19bw == 5 ~ 3.5*2;
-V_19bw == 6 ~ 5*2;
+temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2,
+V_19bw == 2 ~ 0.25*2,
+V_19bw == 3 ~ 0.75*2,
+V_19bw == 4 ~ 1.5*2,
+V_19bw == 5 ~ 3.5*2,
+V_19bw == 6 ~ 5*2,
 ELSE ~ NA_real_)) %&gt;%
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &lt; 1 ~ 1L;
 (rowSums(mutate(.,
-temp_V_19bh = case_when(V_19bh == 1 ~ 0*5;
-V_19bh == 2 ~ 0.25*5;
-V_19bh == 3 ~ 0.75*5;
-V_19bh == 4 ~ 1.5*5;
-V_19bh == 5 ~ 3.5*5;
-V_19bh == 6 ~ 5*5;
+temp_V_19bh = case_when(V_19bh == 1 ~ 0*5,
+V_19bh == 2 ~ 0.25*5,
+V_19bh == 3 ~ 0.75*5,
+V_19bh == 4 ~ 1.5*5,
+V_19bh == 5 ~ 3.5*5,
+V_19bh == 6 ~ 5*5,
 ELSE ~ NA_real_),
-temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
-V_19bw == 2 ~ 0.25*2;
-V_19bw == 3 ~ 0.75*2;
-V_19bw == 4 ~ 1.5*2;
-V_19bw == 5 ~ 3.5*2;
-V_19bw == 6 ~ 5*2;
+temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2,
+V_19bw == 2 ~ 0.25*2,
+V_19bw == 3 ~ 0.75*2,
+V_19bw == 4 ~ 1.5*2,
+V_19bw == 5 ~ 3.5*2,
+V_19bw == 6 ~ 5*2,
 ELSE ~ NA_real_)) %&gt;%
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &gt;= 1 &amp;
 (rowSums(mutate(.,
-temp_V_19bh = case_when(V_19bh == 1 ~ 0*5;
-V_19bh == 2 ~ 0.25*5;
-V_19bh == 3 ~ 0.75*5;
-V_19bh == 4 ~ 1.5*5;
-V_19bh == 5 ~ 3.5*5;
-V_19bh == 6 ~ 5*5
+temp_V_19bh = case_when(V_19bh == 1 ~ 0*5,
+V_19bh == 2 ~ 0.25*5,
+V_19bh == 3 ~ 0.75*5,
+V_19bh == 4 ~ 1.5*5,
+V_19bh == 5 ~ 3.5*5,
+V_19bh == 6 ~ 5*5,
 ELSE ~ NA_real_),
-temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
-V_19bw == 2 ~ 0.25*2;
-V_19bw == 3 ~ 0.75*2;
-V_19bw == 4 ~ 1.5*2;
-V_19bw == 5 ~ 3.5*2;
-V_19bw == 6 ~ 5*2;
+temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2,
+V_19bw == 2 ~ 0.25*2,
+V_19bw == 3 ~ 0.75*2,
+V_19bw == 4 ~ 1.5*2,
+V_19bw == 5 ~ 3.5*2,
+V_19bw == 6 ~ 5*2,
 ELSE ~ NA_real_)) %&gt;%
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &lt;= 3 ~ 2L;
 (rowSums(mutate(.,
-temp_V_19bh = case_when(V_19bh == 1 ~ 0*5;
-V_19bh == 2 ~ 0.25*5;
-V_19bh == 3 ~ 0.75*5;
-V_19bh == 4 ~ 1.5*5;
-V_19bh == 5 ~ 3.5*5;
-V_19bh == 6 ~ 5*5;
+temp_V_19bh = case_when(V_19bh == 1 ~ 0*5,
+V_19bh == 2 ~ 0.25*5,
+V_19bh == 3 ~ 0.75*5,
+V_19bh == 4 ~ 1.5*5,
+V_19bh == 5 ~ 3.5*5,
+V_19bh == 6 ~ 5*5,
 ELSE ~ NA_real_),
-temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2;
-V_19bw == 2 ~ 0.25*2;
-V_19bw == 3 ~ 0.75*2;
-V_19bw == 4 ~ 1.5*2;
-V_19bw == 5 ~ 3.5*2;
-V_19bw == 6 ~ 5*2;
+temp_V_19bw = case_when(V_19bw == 1 ~ 0.5*2,
+V_19bw == 2 ~ 0.25*2,
+V_19bw == 3 ~ 0.75*2,
+V_19bw == 4 ~ 1.5*2,
+V_19bw == 5 ~ 3.5*2,
+V_19bw == 6 ~ 5*2,
 ELSE ~ NA_real_)) %&gt;%
 select(temp_V_19bh, temp_V_19bw), na.rm = FALSE)/7) &gt; 3 ~ 3L; 
 ELSE ~ NA_integer_)
 </t>
   </si>
   <si>
-    <t>V_10l;
-V_10m;
-V_10q</t>
-  </si>
-  <si>
-    <t>case_when(BP_03 == "&lt;0.1" ~ 0.05;
-ELSE ~ as.numeric(BP_03))</t>
-  </si>
-  <si>
-    <t>case_when(BP_07 == "&lt;0.16" ~ 0.08;
-ELSE ~  as.numeric(BP_07))</t>
+    <t>case_when( if_any( .cols = any_of(c("V_24a", "V_24b", "V_24c", "V_24e", "V_24f", "V_24g","V_24h", "V_24i", "V_24j", "V_24k", "V_24l", "V_24m")), .fns = ~ . %in% 3:7) ~ 1L, if_all( .cols = any_of(c("V_24a", "V_24b", "V_24c", "V_24e", "V_24f", "V_24g","V_24h", "V_24i", "V_24j", "V_24k", "V_24l", "V_24m")), .fns = ~ . %in% 1:2) ~ 0L,TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
+if_any(.cols = any_of(c("V_24a", "V_24b", "V_24c", "V_24d", "V_24e", "V_24f", "V_24g", "V_24h", "V_24i", "V_24j", "V_24k", "V_24l", "V_24n", "V_24r", "V_24t"), .fns = ~ . %in% 3:7)) ~ 1L;
+if_all(.cols = any_of(c("V_24a", "V_24b", "V_24c", "V_24d", "V_24e", "V_24f", "V_24g", "V_24h", "V_24i", "V_24j", "V_24k", "V_24l", "V_24n", "V_24r", "V_24t"), .fns = ~ . %in% 1:2)) ~ 0L;
+ELSE ~ NA_integer)</t>
+  </si>
+  <si>
+    <t>case_when(
+if_any(.cols = any_of(c("V_24o", "V_24q"), .fns = ~ . %in% 2:7)) ~ 1L;
+if_all(.cols = any_of(c("V_24o", "V_24q"), .fns = ~ . == 1)) ~ 0L;
+ELSE ~ NA_integer)</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1771,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,8 +1808,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1823,12 +1823,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1874,6 +1889,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1895,6 +1913,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2217,10 +2239,10 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S40" sqref="S40"/>
+      <selection pane="bottomRight" activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,10 +2334,10 @@
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -2338,7 +2360,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>284</v>
@@ -2356,7 +2378,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2405,7 +2427,7 @@
         <v>33</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U3" s="1"/>
     </row>
@@ -2501,7 +2523,7 @@
         <v>33</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -2549,14 +2571,14 @@
         <v>200</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T6" s="14" t="s">
         <v>278</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -2645,14 +2667,14 @@
         <v>200</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>303</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2856,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>25</v>
@@ -2868,14 +2890,14 @@
         <v>39</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>312</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -2929,7 +2951,7 @@
       </c>
       <c r="U14" s="1"/>
       <c r="V14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2977,7 +2999,7 @@
       </c>
       <c r="U15" s="1"/>
       <c r="V15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3090,7 +3112,7 @@
         <v>94</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>323</v>
@@ -3112,7 +3134,7 @@
       </c>
       <c r="U18" s="1"/>
       <c r="V18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -3138,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>25</v>
@@ -3292,7 +3314,7 @@
       </c>
       <c r="U22" s="1"/>
       <c r="V22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -3435,7 +3457,7 @@
         <v>33</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U25" s="1"/>
     </row>
@@ -3486,7 +3508,7 @@
         <v>33</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U26" s="1"/>
     </row>
@@ -3855,7 +3877,7 @@
         <v>200</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="U34" s="1"/>
     </row>
@@ -3897,7 +3919,7 @@
         <v>33</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U35" s="1"/>
     </row>
@@ -3993,7 +4015,7 @@
         <v>200</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="U37" s="1"/>
     </row>
@@ -4403,7 +4425,7 @@
         <v>178</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P47" s="12" t="s">
         <v>25</v>
@@ -4422,7 +4444,7 @@
       </c>
       <c r="U47" s="1"/>
       <c r="V47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -4496,13 +4518,13 @@
         <v>185</v>
       </c>
       <c r="J49" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="K49" s="12" t="s">
-        <v>443</v>
-      </c>
       <c r="O49" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P49" s="12" t="s">
         <v>25</v>
@@ -4514,14 +4536,14 @@
         <v>200</v>
       </c>
       <c r="S49" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T49" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="43.5" x14ac:dyDescent="0.25">
@@ -4547,13 +4569,13 @@
         <v>185</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P50" s="12" t="s">
         <v>25</v>
@@ -4565,14 +4587,14 @@
         <v>200</v>
       </c>
       <c r="S50" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T50" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -4598,7 +4620,7 @@
         <v>185</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P51" s="12" t="s">
         <v>25</v>
@@ -4610,14 +4632,14 @@
         <v>39</v>
       </c>
       <c r="S51" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T51" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -4682,7 +4704,7 @@
         <v>185</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P53" s="12" t="s">
         <v>25</v>
@@ -4694,14 +4716,14 @@
         <v>39</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T53" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U53" s="1"/>
       <c r="V53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -4766,10 +4788,10 @@
         <v>185</v>
       </c>
       <c r="J55" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>447</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>448</v>
       </c>
       <c r="P55" s="12" t="s">
         <v>25</v>
@@ -4781,14 +4803,14 @@
         <v>39</v>
       </c>
       <c r="S55" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T55" s="6" t="s">
         <v>194</v>
       </c>
       <c r="U55" s="1"/>
       <c r="V55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -4835,14 +4857,14 @@
         <v>39</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T56" s="6" t="s">
         <v>388</v>
       </c>
       <c r="U56" s="1"/>
       <c r="V56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="72" x14ac:dyDescent="0.25">
@@ -4889,7 +4911,7 @@
         <v>200</v>
       </c>
       <c r="S57" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U57" s="1"/>
     </row>
@@ -5493,7 +5515,7 @@
       </c>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -5532,7 +5554,7 @@
       </c>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -5563,17 +5585,17 @@
       <c r="M74" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="P74" s="15" t="s">
+      <c r="P74" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q74" s="15" t="s">
+      <c r="Q74" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R74" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="S74" s="16" t="s">
-        <v>456</v>
+      <c r="R74" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S74" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="U74" s="1"/>
     </row>
@@ -5627,7 +5649,7 @@
         <v>251</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>252</v>
@@ -5769,7 +5791,7 @@
       </c>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -5792,16 +5814,16 @@
         <v>185</v>
       </c>
       <c r="J80" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="K80" s="12" t="s">
+      <c r="L80" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="L80" s="12" t="s">
+      <c r="M80" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="P80" s="15" t="s">
         <v>25</v>
@@ -5813,11 +5835,11 @@
         <v>200</v>
       </c>
       <c r="S80" s="17" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -5840,16 +5862,16 @@
         <v>185</v>
       </c>
       <c r="J81" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="L81" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="K81" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>414</v>
-      </c>
       <c r="M81" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P81" s="15" t="s">
         <v>25</v>
@@ -5861,11 +5883,11 @@
         <v>200</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21" ht="114" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -5888,16 +5910,16 @@
         <v>185</v>
       </c>
       <c r="J82" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K82" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="M82" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P82" s="15" t="s">
         <v>25</v>
@@ -5909,7 +5931,7 @@
         <v>200</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="U82" s="1"/>
     </row>
@@ -5927,7 +5949,7 @@
         <v>273</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>37</v>

--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162E913-F75C-4A6D-829C-878FBFD415F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187B492D-5CAC-45B9-AAC8-D9ED13A7C939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1623,14 +1623,6 @@
     <t>V_10l;
 V_10m;
 V_10q</t>
-  </si>
-  <si>
-    <t>case_when(BP_03 == "&lt;0.1" ~ 0.05;
-ELSE ~ as.numeric(BP_03))</t>
-  </si>
-  <si>
-    <t>case_when(BP_07 == "&lt;0.16" ~ 0.08;
-ELSE ~  as.numeric(BP_07))</t>
   </si>
   <si>
     <t xml:space="preserve">case_when(
@@ -1733,6 +1725,14 @@
   ) ~ 0L;
   ELSE ~ NA_integer_
 )</t>
+  </si>
+  <si>
+    <t>case_when(BP_03 == "&lt;0,1" ~ 0.05;
+ELSE ~ as.numeric(BP_03))</t>
+  </si>
+  <si>
+    <t>case_when(BP_07 == "&lt;0,16" ~ 0.08;
+ELSE ~  as.numeric(BP_07))</t>
   </si>
 </sst>
 </file>
@@ -2253,37 +2253,37 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S82" sqref="S82"/>
+      <selection pane="bottomRight" activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="12"/>
-    <col min="8" max="8" width="8.5546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="30.109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="31.88671875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" style="12" customWidth="1"/>
-    <col min="19" max="19" width="58.88671875" style="12" customWidth="1"/>
-    <col min="20" max="21" width="9.109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="12"/>
+    <col min="8" max="8" width="8.5703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="58.85546875" style="12" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -3891,11 +3891,11 @@
         <v>200</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -4029,11 +4029,11 @@
         <v>200</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -5609,11 +5609,11 @@
         <v>200</v>
       </c>
       <c r="S74" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -5849,11 +5849,11 @@
         <v>200</v>
       </c>
       <c r="S80" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -5897,11 +5897,11 @@
         <v>200</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -5945,11 +5945,11 @@
         <v>200</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>83</v>
       </c>

--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187B492D-5CAC-45B9-AAC8-D9ED13A7C939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7589CCA4-0814-4405-A820-9731A4167695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1615,9 +1615,6 @@
 V_15s == 1 ~ 1L;
 (V_15r == 0) &amp; (V_15s == 0) ~ 0L;
 ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>as.Date(VisitDate)</t>
   </si>
   <si>
     <t>V_10l;
@@ -1733,6 +1730,9 @@
   <si>
     <t>case_when(BP_07 == "&lt;0,16" ~ 0.08;
 ELSE ~  as.numeric(BP_07))</t>
+  </si>
+  <si>
+    <t>as.Date(VisitDate)+1</t>
   </si>
 </sst>
 </file>
@@ -2253,10 +2253,10 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V34" sqref="V34"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2441,7 @@
         <v>33</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="U3" s="1"/>
     </row>
@@ -3891,7 +3891,7 @@
         <v>200</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U34" s="1"/>
     </row>
@@ -4029,7 +4029,7 @@
         <v>200</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U37" s="1"/>
     </row>
@@ -4583,7 +4583,7 @@
         <v>185</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>443</v>
@@ -5609,7 +5609,7 @@
         <v>200</v>
       </c>
       <c r="S74" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U74" s="1"/>
     </row>
@@ -5849,7 +5849,7 @@
         <v>200</v>
       </c>
       <c r="S80" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U80" s="1"/>
     </row>
@@ -5897,7 +5897,7 @@
         <v>200</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U81" s="1"/>
     </row>
@@ -5945,7 +5945,7 @@
         <v>200</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U82" s="1"/>
     </row>

--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7589CCA4-0814-4405-A820-9731A4167695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C905E2-F622-4ED7-A96C-7E4121E29432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -2253,10 +2253,10 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,7 +3135,7 @@
         <v>25</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R18" s="12" t="s">
         <v>200</v>
@@ -3741,7 +3741,7 @@
         <v>25</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="R31" s="12" t="s">
         <v>45</v>
@@ -4918,8 +4918,8 @@
       <c r="P57" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q57" s="15" t="s">
-        <v>26</v>
+      <c r="Q57" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="R57" s="15" t="s">
         <v>200</v>

--- a/data_processing_elements-LOF.xlsx
+++ b/data_processing_elements-LOF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C905E2-F622-4ED7-A96C-7E4121E29432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF09DD3-41A9-4A38-8D02-F169BED83064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -2253,10 +2253,10 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O57" sqref="O57"/>
+      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4050,7 +4050,7 @@
         <v>147</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>148</v>
@@ -4128,7 +4128,7 @@
         <v>155</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>148</v>
